--- a/data/outputs/OR_altmetric/27.xlsx
+++ b/data/outputs/OR_altmetric/27.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE54"/>
+  <dimension ref="A1:CF54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1031,6 +1036,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1286,6 +1294,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>5.75</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1557,6 +1568,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1812,6 +1826,9 @@
         <v>0</v>
       </c>
       <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2061,6 +2078,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2316,6 +2336,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2571,6 +2594,9 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2814,6 +2840,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3080,6 +3109,9 @@
       </c>
       <c r="CE10" t="n">
         <v>0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>5.05</v>
       </c>
     </row>
     <row r="11">
@@ -3318,6 +3350,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3569,6 +3604,9 @@
       <c r="CE12" t="n">
         <v>1</v>
       </c>
+      <c r="CF12" t="n">
+        <v>4.05</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3820,6 +3858,9 @@
       <c r="CE13" t="n">
         <v>1</v>
       </c>
+      <c r="CF13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4075,6 +4116,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4326,6 +4370,9 @@
         <v>0</v>
       </c>
       <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4573,6 +4620,9 @@
         <v>95</v>
       </c>
       <c r="CE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4808,6 +4858,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5053,6 +5106,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5292,6 +5348,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>10.33</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5541,6 +5600,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5802,6 +5864,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6065,6 +6130,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6328,6 +6396,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>2.85</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6577,6 +6648,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6830,6 +6904,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7079,6 +7156,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7340,6 +7420,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7591,6 +7674,9 @@
         <v>0</v>
       </c>
       <c r="CE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7840,6 +7926,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8087,6 +8176,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8342,6 +8434,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8605,6 +8700,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8867,6 +8965,9 @@
       </c>
       <c r="CE33" t="n">
         <v>0</v>
+      </c>
+      <c r="CF33" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="34">
@@ -9123,6 +9224,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9378,6 +9482,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>3.85</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9637,6 +9744,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9899,6 +10009,9 @@
       </c>
       <c r="CE37" t="n">
         <v>0</v>
+      </c>
+      <c r="CF37" t="n">
+        <v>2.85</v>
       </c>
     </row>
     <row r="38">
@@ -10145,6 +10258,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10398,6 +10514,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10647,6 +10766,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10901,6 +11023,9 @@
       </c>
       <c r="CE41" t="n">
         <v>0</v>
+      </c>
+      <c r="CF41" t="n">
+        <v>7.25</v>
       </c>
     </row>
     <row r="42">
@@ -11149,6 +11274,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>2.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11407,6 +11535,9 @@
       </c>
       <c r="CE43" t="n">
         <v>0</v>
+      </c>
+      <c r="CF43" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="44">
@@ -11653,6 +11784,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11902,6 +12036,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12152,6 +12289,9 @@
       </c>
       <c r="CE46" t="n">
         <v>0</v>
+      </c>
+      <c r="CF46" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -12382,6 +12522,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12633,6 +12776,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12884,6 +13030,9 @@
         <v>0</v>
       </c>
       <c r="CE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13131,6 +13280,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13378,6 +13530,9 @@
         <v>0</v>
       </c>
       <c r="CE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13627,6 +13782,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13880,6 +14038,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14129,6 +14290,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
